--- a/doc/02-1 原始需求记录表.xlsx
+++ b/doc/02-1 原始需求记录表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACAB9C0-559B-43B4-9C46-AAA4436D38BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89135656-E169-402A-BE63-D57ADDBC0094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,15 +37,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册和登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以让用户发布和查看帖子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,35 +45,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看和发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以让用户查看和购买课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金思锦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高兴奎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给用户推荐热门帖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给用户提供活动</t>
+    <t>可以让用户查询其他用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +479,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:P6"/>
+      <selection activeCell="I3" sqref="I3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -552,13 +524,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -597,21 +569,15 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -623,21 +589,15 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -649,21 +609,15 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1356,6 +1310,150 @@
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:P3"/>
@@ -1372,150 +1470,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="Q38:R38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/02-1 原始需求记录表.xlsx
+++ b/doc/02-1 原始需求记录表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89135656-E169-402A-BE63-D57ADDBC0094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9779724-22FD-4959-818D-32DF09B702CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始需求记录表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,118 @@
   </si>
   <si>
     <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有六个界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部有为黑色的导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部有固定的导航栏可以跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页中间有一个搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入首页有一个可以轮播的焦点图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页焦点图下面有推荐的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入文章界面有热门活动推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门活动下面推荐的热门文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门文章旁边是最新文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入社区界面是推荐的热门帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门帖子下面是推荐课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐课程旁边可以发表帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部的导航栏有用户的头像，点击有下拉列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程页面顶部会有一个广告焦点图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告焦点图下面是推荐的课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击课程用户可以选择购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入活动界面有一系列的焦点图排列推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入联系我们界面可以让用户找到我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金思锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高兴奎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:P3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -569,11 +681,15 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -589,11 +705,15 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -609,11 +729,15 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -629,11 +753,15 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -649,11 +777,15 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -669,11 +801,15 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -689,11 +825,15 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -709,11 +849,15 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -729,11 +873,15 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -749,11 +897,15 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -769,11 +921,15 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -789,11 +945,15 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -809,11 +969,15 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -829,11 +993,15 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -849,11 +1017,15 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -869,11 +1041,15 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -889,11 +1065,15 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -909,11 +1089,15 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -929,11 +1113,15 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -949,11 +1137,15 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -969,11 +1161,15 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -989,11 +1185,15 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1009,11 +1209,15 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1310,6 +1514,150 @@
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="I39:P39"/>
@@ -1326,150 +1674,6 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="I38:P38"/>
     <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
